--- a/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create_накоейки_А5_21.03.2024.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create_накоейки_А5_21.03.2024.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="146">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1491,6 +1491,9 @@
     <t xml:space="preserve">Термонаклейка Русалочка дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489753704</t>
+  </si>
+  <si>
     <t xml:space="preserve">ariel_a_vert</t>
   </si>
   <si>
@@ -1527,118 +1530,178 @@
     <t xml:space="preserve">Термонаклейка Барт стоит с скейтом Симпсоны</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755107</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Барт Прыгает на скейте Симпсоны</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755062</t>
+  </si>
+  <si>
     <t xml:space="preserve">bart_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Принцессы дисней</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755132</t>
+  </si>
+  <si>
     <t xml:space="preserve">disney_ladies_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Холодное сердце 3 Эльза Анна Олаф</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755133</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_anna_olaf_heart_art_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце стоят</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755038</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_anna_stand_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Эльза обнимает Олафа Холодное сердце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755557</t>
+  </si>
+  <si>
     <t xml:space="preserve">elsa_olaf_hug_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Хаги Ваги ест завтрак</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755618</t>
+  </si>
+  <si>
     <t xml:space="preserve">huggy_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Хаги Ваги Голова и надпись</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755022</t>
+  </si>
+  <si>
     <t xml:space="preserve">huggy_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Халк зеленый круг фон</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754949</t>
+  </si>
+  <si>
     <t xml:space="preserve">hulk_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Джерри ест сыр</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754898</t>
+  </si>
+  <si>
     <t xml:space="preserve">jerry_and_cheese_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леди Баг сидит</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755059</t>
+  </si>
+  <si>
     <t xml:space="preserve">lady_bug_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Король Лев сердце хвосты</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754957</t>
+  </si>
+  <si>
     <t xml:space="preserve">lion_king_a_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Май Литл Пони радуга</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754989</t>
+  </si>
+  <si>
     <t xml:space="preserve">little_ponny_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Майнкрафт скачет на свинье</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755030</t>
+  </si>
+  <si>
     <t xml:space="preserve">minecraft_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус сидит сердечки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755051</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_hearts_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Минни Маус фея костюм</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489754799</t>
+  </si>
+  <si>
     <t xml:space="preserve">minni_hearts_blink_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль и Логотип</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755095</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_a_vert</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль полицеский</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755020</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_b_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Шенячий Патруль мальчик главный</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1489755015</t>
+  </si>
+  <si>
     <t xml:space="preserve">paw_patrol_c_horiz</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черепашки Ниндзя фон треугольник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1489754845</t>
   </si>
   <si>
     <t xml:space="preserve">turtles_a_fighters_horiz</t>
@@ -1971,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O23" activeCellId="0" sqref="O23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2242,8 +2305,11 @@
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A2, ".pdf")</f>
@@ -2256,13 +2322,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2272,12 +2338,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Русалочка дисней</v>
       </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="7" t="str">
+        <f aca="false">B2</f>
+        <v>OZN1489753704</v>
+      </c>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="8" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
@@ -2297,7 +2366,7 @@
         <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A5.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
@@ -2316,10 +2385,10 @@
         <v>428</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -2349,7 +2418,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ2" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="11"/>
       <c r="AT2" s="0" t="str">
@@ -2357,7 +2426,7 @@
         <v>Русалочка дисней</v>
       </c>
       <c r="AU2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
@@ -2373,7 +2442,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="11"/>
       <c r="BE2" s="15" t="str">
@@ -2385,7 +2454,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Русалочка дисней</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS2" s="17" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
@@ -2394,10 +2463,13 @@
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A3, ".pdf")</f>
@@ -2410,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="0" t="str">
         <f aca="false">A3</f>
@@ -2426,11 +2498,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Барт стоит с скейтом Симпсоны</v>
       </c>
+      <c r="P3" s="7" t="str">
+        <f aca="false">B3</f>
+        <v>OZN1489755107</v>
+      </c>
       <c r="Q3" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" s="8" t="str">
         <f aca="false">A3&amp;Описание!B8</f>
@@ -2450,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,"instruction_A5.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
@@ -2469,10 +2545,10 @@
         <v>428</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="n">
         <f aca="false">W3</f>
@@ -2502,7 +2578,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ3" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS3" s="11"/>
       <c r="AT3" s="0" t="str">
@@ -2510,7 +2586,7 @@
         <v>Барт стоит с скейтом Симпсоны</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="0" t="str">
         <f aca="false">S3</f>
@@ -2526,7 +2602,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC3" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD3" s="11"/>
       <c r="BE3" s="15" t="str">
@@ -2538,7 +2614,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Барт стоит с скейтом Симпсоны</v>
       </c>
       <c r="BR3" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS3" s="17" t="str">
         <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
@@ -2547,10 +2623,13 @@
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A4, ".pdf")</f>
@@ -2563,13 +2642,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="0" t="str">
         <f aca="false">A4</f>
@@ -2579,11 +2658,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Барт Прыгает на скейте Симпсоны</v>
       </c>
+      <c r="P4" s="7" t="str">
+        <f aca="false">B4</f>
+        <v>OZN1489755062</v>
+      </c>
       <c r="Q4" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="8" t="str">
         <f aca="false">A4&amp;Описание!B9</f>
@@ -2603,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,"instruction_A5.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
@@ -2622,10 +2705,10 @@
         <v>428</v>
       </c>
       <c r="AD4" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">W4</f>
@@ -2655,7 +2738,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ4" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS4" s="11"/>
       <c r="AT4" s="0" t="str">
@@ -2663,7 +2746,7 @@
         <v>Барт Прыгает на скейте Симпсоны</v>
       </c>
       <c r="AU4" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="0" t="str">
         <f aca="false">S4</f>
@@ -2679,7 +2762,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC4" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD4" s="11"/>
       <c r="BE4" s="15" t="str">
@@ -2691,7 +2774,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Барт Прыгает на скейте Симпсоны</v>
       </c>
       <c r="BR4" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS4" s="17" t="str">
         <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
@@ -2700,10 +2783,13 @@
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A5, ".pdf")</f>
@@ -2716,13 +2802,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" s="0" t="str">
         <f aca="false">A5</f>
@@ -2732,11 +2818,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Принцессы дисней</v>
       </c>
+      <c r="P5" s="7" t="str">
+        <f aca="false">B5</f>
+        <v>OZN1489755132</v>
+      </c>
       <c r="Q5" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" s="8" t="str">
         <f aca="false">A5&amp;Описание!B10</f>
@@ -2756,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,"instruction_A5.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
@@ -2775,10 +2865,10 @@
         <v>428</v>
       </c>
       <c r="AD5" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">W5</f>
@@ -2808,7 +2898,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ5" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS5" s="11"/>
       <c r="AT5" s="0" t="str">
@@ -2816,7 +2906,7 @@
         <v>Принцессы дисней</v>
       </c>
       <c r="AU5" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="0" t="str">
         <f aca="false">S5</f>
@@ -2832,7 +2922,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC5" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="15" t="str">
@@ -2844,7 +2934,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Принцессы дисней</v>
       </c>
       <c r="BR5" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS5" s="17" t="str">
         <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
@@ -2853,10 +2943,13 @@
     </row>
     <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A6, ".pdf")</f>
@@ -2869,13 +2962,13 @@
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" s="0" t="str">
         <f aca="false">A6</f>
@@ -2885,11 +2978,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A6, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Холодное сердце 3 Эльза Анна Олаф</v>
       </c>
+      <c r="P6" s="7" t="str">
+        <f aca="false">B6</f>
+        <v>OZN1489755133</v>
+      </c>
       <c r="Q6" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" s="8" t="str">
         <f aca="false">A6&amp;Описание!B11</f>
@@ -2909,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,"instruction_A5.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
@@ -2928,10 +3025,10 @@
         <v>428</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">W6</f>
@@ -2961,7 +3058,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ6" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS6" s="11"/>
       <c r="AT6" s="0" t="str">
@@ -2969,7 +3066,7 @@
         <v>Холодное сердце 3 Эльза Анна Олаф</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV6" s="0" t="str">
         <f aca="false">S6</f>
@@ -2985,7 +3082,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD6" s="11"/>
       <c r="BE6" s="15" t="str">
@@ -2997,7 +3094,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Холодное сердце 3 Эльза Анна Олаф</v>
       </c>
       <c r="BR6" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS6" s="17" t="str">
         <f aca="false">CONCATENATE(H6,"Video_DTF.mp4")</f>
@@ -3006,10 +3103,13 @@
     </row>
     <row r="7" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A7, ".pdf")</f>
@@ -3022,13 +3122,13 @@
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="str">
         <f aca="false">A7</f>
@@ -3038,11 +3138,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A7, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Эльза Анна Холодное сердце стоят</v>
       </c>
+      <c r="P7" s="7" t="str">
+        <f aca="false">B7</f>
+        <v>OZN1489755038</v>
+      </c>
       <c r="Q7" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" s="8" t="str">
         <f aca="false">A7&amp;Описание!B12</f>
@@ -3062,7 +3166,7 @@
         <v>10</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,"instruction_A5.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
@@ -3081,10 +3185,10 @@
         <v>428</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">W7</f>
@@ -3114,7 +3218,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ7" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS7" s="11"/>
       <c r="AT7" s="0" t="str">
@@ -3122,7 +3226,7 @@
         <v>Эльза Анна Холодное сердце стоят</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="0" t="str">
         <f aca="false">S7</f>
@@ -3138,7 +3242,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC7" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD7" s="11"/>
       <c r="BE7" s="15" t="str">
@@ -3150,7 +3254,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Эльза Анна Холодное сердце стоят</v>
       </c>
       <c r="BR7" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS7" s="17" t="str">
         <f aca="false">CONCATENATE(H7,"Video_DTF.mp4")</f>
@@ -3159,10 +3263,13 @@
     </row>
     <row r="8" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A8, ".pdf")</f>
@@ -3175,13 +3282,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">A8</f>
@@ -3191,11 +3298,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A8, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Эльза обнимает Олафа Холодное сердце</v>
       </c>
+      <c r="P8" s="7" t="str">
+        <f aca="false">B8</f>
+        <v>OZN1489755557</v>
+      </c>
       <c r="Q8" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" s="8" t="str">
         <f aca="false">A8&amp;Описание!B13</f>
@@ -3215,7 +3326,7 @@
         <v>10</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,"instruction_A5.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
@@ -3234,10 +3345,10 @@
         <v>428</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">W8</f>
@@ -3267,7 +3378,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ8" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS8" s="11"/>
       <c r="AT8" s="0" t="str">
@@ -3275,7 +3386,7 @@
         <v>Эльза обнимает Олафа Холодное сердце</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV8" s="0" t="str">
         <f aca="false">S8</f>
@@ -3291,7 +3402,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC8" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD8" s="11"/>
       <c r="BE8" s="15" t="str">
@@ -3303,7 +3414,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Эльза обнимает Олафа Холодное сердце</v>
       </c>
       <c r="BR8" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS8" s="17" t="str">
         <f aca="false">CONCATENATE(H8,"Video_DTF.mp4")</f>
@@ -3312,10 +3423,13 @@
     </row>
     <row r="9" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A9, ".pdf")</f>
@@ -3328,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">A9</f>
@@ -3344,11 +3458,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A9, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Хаги Ваги ест завтрак</v>
       </c>
+      <c r="P9" s="7" t="str">
+        <f aca="false">B9</f>
+        <v>OZN1489755618</v>
+      </c>
       <c r="Q9" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" s="8" t="str">
         <f aca="false">A9&amp;Описание!B14</f>
@@ -3368,7 +3486,7 @@
         <v>10</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,"instruction_A5.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
@@ -3387,10 +3505,10 @@
         <v>428</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">W9</f>
@@ -3420,7 +3538,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ9" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS9" s="11"/>
       <c r="AT9" s="0" t="str">
@@ -3428,7 +3546,7 @@
         <v>Хаги Ваги ест завтрак</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="0" t="str">
         <f aca="false">S9</f>
@@ -3444,7 +3562,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC9" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD9" s="11"/>
       <c r="BE9" s="15" t="str">
@@ -3456,7 +3574,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Хаги Ваги ест завтрак</v>
       </c>
       <c r="BR9" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS9" s="17" t="str">
         <f aca="false">CONCATENATE(H9,"Video_DTF.mp4")</f>
@@ -3465,10 +3583,13 @@
     </row>
     <row r="10" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A10, ".pdf")</f>
@@ -3481,13 +3602,13 @@
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="0" t="str">
         <f aca="false">A10</f>
@@ -3497,11 +3618,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A10, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Хаги Ваги Голова и надпись</v>
       </c>
+      <c r="P10" s="7" t="str">
+        <f aca="false">B10</f>
+        <v>OZN1489755022</v>
+      </c>
       <c r="Q10" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" s="8" t="str">
         <f aca="false">A10&amp;Описание!B15</f>
@@ -3521,7 +3646,7 @@
         <v>10</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,"instruction_A5.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
@@ -3540,10 +3665,10 @@
         <v>428</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">W10</f>
@@ -3573,7 +3698,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ10" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS10" s="11"/>
       <c r="AT10" s="0" t="str">
@@ -3581,7 +3706,7 @@
         <v>Хаги Ваги Голова и надпись</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV10" s="0" t="str">
         <f aca="false">S10</f>
@@ -3597,7 +3722,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC10" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD10" s="11"/>
       <c r="BE10" s="15" t="str">
@@ -3609,7 +3734,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Хаги Ваги Голова и надпись</v>
       </c>
       <c r="BR10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS10" s="17" t="str">
         <f aca="false">CONCATENATE(H10,"Video_DTF.mp4")</f>
@@ -3618,10 +3743,13 @@
     </row>
     <row r="11" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A11, ".pdf")</f>
@@ -3634,13 +3762,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="0" t="str">
         <f aca="false">A11</f>
@@ -3650,11 +3778,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A11, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Халк зеленый круг фон</v>
       </c>
+      <c r="P11" s="7" t="str">
+        <f aca="false">B11</f>
+        <v>OZN1489754949</v>
+      </c>
       <c r="Q11" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" s="8" t="str">
         <f aca="false">A11&amp;Описание!B16</f>
@@ -3674,7 +3806,7 @@
         <v>10</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,"instruction_A5.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
@@ -3693,10 +3825,10 @@
         <v>428</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">W11</f>
@@ -3726,7 +3858,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ11" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS11" s="11"/>
       <c r="AT11" s="0" t="str">
@@ -3734,7 +3866,7 @@
         <v>Халк зеленый круг фон</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV11" s="0" t="str">
         <f aca="false">S11</f>
@@ -3750,7 +3882,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC11" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD11" s="11"/>
       <c r="BE11" s="15" t="str">
@@ -3762,7 +3894,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Халк зеленый круг фон</v>
       </c>
       <c r="BR11" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS11" s="17" t="str">
         <f aca="false">CONCATENATE(H11,"Video_DTF.mp4")</f>
@@ -3771,10 +3903,13 @@
     </row>
     <row r="12" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A12, ".pdf")</f>
@@ -3787,13 +3922,13 @@
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="0" t="str">
         <f aca="false">A12</f>
@@ -3803,11 +3938,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A12, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Джерри ест сыр</v>
       </c>
+      <c r="P12" s="7" t="str">
+        <f aca="false">B12</f>
+        <v>OZN1489754898</v>
+      </c>
       <c r="Q12" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" s="8" t="str">
         <f aca="false">A12&amp;Описание!B17</f>
@@ -3827,7 +3966,7 @@
         <v>10</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,"instruction_A5.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
@@ -3846,10 +3985,10 @@
         <v>428</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">W12</f>
@@ -3879,7 +4018,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ12" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS12" s="11"/>
       <c r="AT12" s="0" t="str">
@@ -3887,7 +4026,7 @@
         <v>Джерри ест сыр</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV12" s="0" t="str">
         <f aca="false">S12</f>
@@ -3903,7 +4042,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC12" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD12" s="11"/>
       <c r="BE12" s="15" t="str">
@@ -3915,7 +4054,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Джерри ест сыр</v>
       </c>
       <c r="BR12" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS12" s="17" t="str">
         <f aca="false">CONCATENATE(H12,"Video_DTF.mp4")</f>
@@ -3924,10 +4063,13 @@
     </row>
     <row r="13" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A13, ".pdf")</f>
@@ -3940,13 +4082,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="0" t="str">
         <f aca="false">A13</f>
@@ -3956,11 +4098,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A13, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Леди Баг сидит</v>
       </c>
+      <c r="P13" s="7" t="str">
+        <f aca="false">B13</f>
+        <v>OZN1489755059</v>
+      </c>
       <c r="Q13" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" s="8" t="str">
         <f aca="false">A13&amp;Описание!B18</f>
@@ -3980,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H13,C13,"_1.jpg;"),CONCATENATE(H13,C13,"_2.jpg;"),CONCATENATE(H13,C13,"_3.jpg;"),CONCATENATE(H13,C13,"_4.jpg;"),CONCATENATE(H13,C13,"_5.jpg;"),CONCATENATE(H13,"instruction_A5.jpg;"),CONCATENATE(H13,"Video_DTF.mp4;"))</f>
@@ -3999,10 +4145,10 @@
         <v>428</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">W13</f>
@@ -4032,7 +4178,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ13" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS13" s="11"/>
       <c r="AT13" s="0" t="str">
@@ -4040,7 +4186,7 @@
         <v>Леди Баг сидит</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV13" s="0" t="str">
         <f aca="false">S13</f>
@@ -4056,7 +4202,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC13" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD13" s="11"/>
       <c r="BE13" s="15" t="str">
@@ -4068,7 +4214,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леди Баг сидит</v>
       </c>
       <c r="BR13" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS13" s="17" t="str">
         <f aca="false">CONCATENATE(H13,"Video_DTF.mp4")</f>
@@ -4077,10 +4223,13 @@
     </row>
     <row r="14" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A14, ".pdf")</f>
@@ -4093,13 +4242,13 @@
         <v>2</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="0" t="str">
         <f aca="false">A14</f>
@@ -4109,11 +4258,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A14, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Король Лев сердце хвосты</v>
       </c>
+      <c r="P14" s="7" t="str">
+        <f aca="false">B14</f>
+        <v>OZN1489754957</v>
+      </c>
       <c r="Q14" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" s="8" t="str">
         <f aca="false">A14&amp;Описание!B19</f>
@@ -4133,7 +4286,7 @@
         <v>10</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H14,C14,"_1.jpg;"),CONCATENATE(H14,C14,"_2.jpg;"),CONCATENATE(H14,C14,"_3.jpg;"),CONCATENATE(H14,C14,"_4.jpg;"),CONCATENATE(H14,C14,"_5.jpg;"),CONCATENATE(H14,"instruction_A5.jpg;"),CONCATENATE(H14,"Video_DTF.mp4;"))</f>
@@ -4152,10 +4305,10 @@
         <v>428</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">W14</f>
@@ -4185,7 +4338,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS14" s="11"/>
       <c r="AT14" s="0" t="str">
@@ -4193,7 +4346,7 @@
         <v>Король Лев сердце хвосты</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV14" s="0" t="str">
         <f aca="false">S14</f>
@@ -4209,7 +4362,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC14" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD14" s="11"/>
       <c r="BE14" s="15" t="str">
@@ -4221,7 +4374,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Король Лев сердце хвосты</v>
       </c>
       <c r="BR14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS14" s="17" t="str">
         <f aca="false">CONCATENATE(H14,"Video_DTF.mp4")</f>
@@ -4230,10 +4383,13 @@
     </row>
     <row r="15" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A15, ".pdf")</f>
@@ -4246,13 +4402,13 @@
         <v>2</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="0" t="str">
         <f aca="false">A15</f>
@@ -4262,11 +4418,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A15, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Май Литл Пони радуга</v>
       </c>
+      <c r="P15" s="7" t="str">
+        <f aca="false">B15</f>
+        <v>OZN1489754989</v>
+      </c>
       <c r="Q15" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" s="8" t="str">
         <f aca="false">A15&amp;Описание!B20</f>
@@ -4286,7 +4446,7 @@
         <v>10</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H15,C15,"_1.jpg;"),CONCATENATE(H15,C15,"_2.jpg;"),CONCATENATE(H15,C15,"_3.jpg;"),CONCATENATE(H15,C15,"_4.jpg;"),CONCATENATE(H15,C15,"_5.jpg;"),CONCATENATE(H15,"instruction_A5.jpg;"),CONCATENATE(H15,"Video_DTF.mp4;"))</f>
@@ -4305,10 +4465,10 @@
         <v>428</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">W15</f>
@@ -4338,7 +4498,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ15" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS15" s="11"/>
       <c r="AT15" s="0" t="str">
@@ -4346,7 +4506,7 @@
         <v>Май Литл Пони радуга</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV15" s="0" t="str">
         <f aca="false">S15</f>
@@ -4362,7 +4522,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC15" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD15" s="11"/>
       <c r="BE15" s="15" t="str">
@@ -4374,7 +4534,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Май Литл Пони радуга</v>
       </c>
       <c r="BR15" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS15" s="17" t="str">
         <f aca="false">CONCATENATE(H15,"Video_DTF.mp4")</f>
@@ -4383,10 +4543,13 @@
     </row>
     <row r="16" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>109</v>
+        <v>123</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A16, ".pdf")</f>
@@ -4399,13 +4562,13 @@
         <v>2</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="0" t="str">
         <f aca="false">A16</f>
@@ -4415,11 +4578,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A16, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Майнкрафт скачет на свинье</v>
       </c>
+      <c r="P16" s="7" t="str">
+        <f aca="false">B16</f>
+        <v>OZN1489755030</v>
+      </c>
       <c r="Q16" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" s="8" t="str">
         <f aca="false">A16&amp;Описание!B21</f>
@@ -4439,7 +4606,7 @@
         <v>10</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H16,C16,"_1.jpg;"),CONCATENATE(H16,C16,"_2.jpg;"),CONCATENATE(H16,C16,"_3.jpg;"),CONCATENATE(H16,C16,"_4.jpg;"),CONCATENATE(H16,C16,"_5.jpg;"),CONCATENATE(H16,"instruction_A5.jpg;"),CONCATENATE(H16,"Video_DTF.mp4;"))</f>
@@ -4458,10 +4625,10 @@
         <v>428</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">W16</f>
@@ -4491,7 +4658,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ16" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS16" s="11"/>
       <c r="AT16" s="0" t="str">
@@ -4499,7 +4666,7 @@
         <v>Майнкрафт скачет на свинье</v>
       </c>
       <c r="AU16" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV16" s="0" t="str">
         <f aca="false">S16</f>
@@ -4515,7 +4682,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC16" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD16" s="11"/>
       <c r="BE16" s="15" t="str">
@@ -4527,7 +4694,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Майнкрафт скачет на свинье</v>
       </c>
       <c r="BR16" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS16" s="17" t="str">
         <f aca="false">CONCATENATE(H16,"Video_DTF.mp4")</f>
@@ -4536,10 +4703,13 @@
     </row>
     <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A17, ".pdf")</f>
@@ -4552,13 +4722,13 @@
         <v>2</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="0" t="str">
         <f aca="false">A17</f>
@@ -4568,11 +4738,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A17, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Минни Маус сидит сердечки</v>
       </c>
+      <c r="P17" s="7" t="str">
+        <f aca="false">B17</f>
+        <v>OZN1489755051</v>
+      </c>
       <c r="Q17" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" s="8" t="str">
         <f aca="false">A17&amp;Описание!B22</f>
@@ -4592,7 +4766,7 @@
         <v>10</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,"instruction_A5.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
@@ -4611,10 +4785,10 @@
         <v>428</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">W17</f>
@@ -4644,7 +4818,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ17" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS17" s="11"/>
       <c r="AT17" s="0" t="str">
@@ -4652,7 +4826,7 @@
         <v>Минни Маус сидит сердечки</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV17" s="0" t="str">
         <f aca="false">S17</f>
@@ -4668,7 +4842,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC17" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD17" s="11"/>
       <c r="BE17" s="15" t="str">
@@ -4680,7 +4854,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Минни Маус сидит сердечки</v>
       </c>
       <c r="BR17" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS17" s="17" t="str">
         <f aca="false">CONCATENATE(H17,"Video_DTF.mp4")</f>
@@ -4689,10 +4863,13 @@
     </row>
     <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A18, ".pdf")</f>
@@ -4705,13 +4882,13 @@
         <v>2</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="0" t="str">
         <f aca="false">A18</f>
@@ -4721,11 +4898,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A18, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Минни Маус фея костюм</v>
       </c>
+      <c r="P18" s="7" t="str">
+        <f aca="false">B18</f>
+        <v>OZN1489754799</v>
+      </c>
       <c r="Q18" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" s="8" t="str">
         <f aca="false">A18&amp;Описание!B23</f>
@@ -4745,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,"instruction_A5.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
@@ -4764,10 +4945,10 @@
         <v>428</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">W18</f>
@@ -4797,7 +4978,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ18" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS18" s="11"/>
       <c r="AT18" s="0" t="str">
@@ -4805,7 +4986,7 @@
         <v>Минни Маус фея костюм</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV18" s="0" t="str">
         <f aca="false">S18</f>
@@ -4821,7 +5002,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC18" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD18" s="11"/>
       <c r="BE18" s="15" t="str">
@@ -4833,7 +5014,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Минни Маус фея костюм</v>
       </c>
       <c r="BR18" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS18" s="17" t="str">
         <f aca="false">CONCATENATE(H18,"Video_DTF.mp4")</f>
@@ -4842,10 +5023,13 @@
     </row>
     <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A19, ".pdf")</f>
@@ -4858,13 +5042,13 @@
         <v>2</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" s="0" t="str">
         <f aca="false">A19</f>
@@ -4874,11 +5058,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A19, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Шенячий Патруль и Логотип</v>
       </c>
+      <c r="P19" s="7" t="str">
+        <f aca="false">B19</f>
+        <v>OZN1489755095</v>
+      </c>
       <c r="Q19" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" s="8" t="str">
         <f aca="false">A19&amp;Описание!B24</f>
@@ -4898,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,"instruction_A5.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
@@ -4917,10 +5105,10 @@
         <v>428</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">W19</f>
@@ -4950,7 +5138,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ19" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS19" s="11"/>
       <c r="AT19" s="0" t="str">
@@ -4958,7 +5146,7 @@
         <v>Шенячий Патруль и Логотип</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV19" s="0" t="str">
         <f aca="false">S19</f>
@@ -4974,7 +5162,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC19" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD19" s="11"/>
       <c r="BE19" s="15" t="str">
@@ -4986,7 +5174,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Шенячий Патруль и Логотип</v>
       </c>
       <c r="BR19" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS19" s="17" t="str">
         <f aca="false">CONCATENATE(H19,"Video_DTF.mp4")</f>
@@ -4995,10 +5183,13 @@
     </row>
     <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A20, ".pdf")</f>
@@ -5011,13 +5202,13 @@
         <v>2</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M20" s="0" t="str">
         <f aca="false">A20</f>
@@ -5027,11 +5218,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A20, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Шенячий Патруль полицеский</v>
       </c>
+      <c r="P20" s="7" t="str">
+        <f aca="false">B20</f>
+        <v>OZN1489755020</v>
+      </c>
       <c r="Q20" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" s="8" t="str">
         <f aca="false">A20&amp;Описание!B25</f>
@@ -5051,7 +5246,7 @@
         <v>10</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,"instruction_A5.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
@@ -5070,10 +5265,10 @@
         <v>428</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">W20</f>
@@ -5103,7 +5298,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ20" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS20" s="11"/>
       <c r="AT20" s="0" t="str">
@@ -5111,7 +5306,7 @@
         <v>Шенячий Патруль полицеский</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV20" s="0" t="str">
         <f aca="false">S20</f>
@@ -5127,7 +5322,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC20" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD20" s="11"/>
       <c r="BE20" s="15" t="str">
@@ -5139,7 +5334,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Шенячий Патруль полицеский</v>
       </c>
       <c r="BR20" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS20" s="17" t="str">
         <f aca="false">CONCATENATE(H20,"Video_DTF.mp4")</f>
@@ -5148,10 +5343,13 @@
     </row>
     <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>119</v>
+        <v>138</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A21, ".pdf")</f>
@@ -5164,13 +5362,13 @@
         <v>2</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="0" t="str">
         <f aca="false">A21</f>
@@ -5180,11 +5378,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A21, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Шенячий Патруль мальчик главный</v>
       </c>
+      <c r="P21" s="7" t="str">
+        <f aca="false">B21</f>
+        <v>OZN1489755015</v>
+      </c>
       <c r="Q21" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" s="8" t="str">
         <f aca="false">A21&amp;Описание!B26</f>
@@ -5204,7 +5406,7 @@
         <v>10</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,"instruction_A5.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
@@ -5223,10 +5425,10 @@
         <v>428</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">W21</f>
@@ -5256,7 +5458,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ21" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS21" s="11"/>
       <c r="AT21" s="0" t="str">
@@ -5264,7 +5466,7 @@
         <v>Шенячий Патруль мальчик главный</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV21" s="0" t="str">
         <f aca="false">S21</f>
@@ -5280,7 +5482,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC21" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD21" s="11"/>
       <c r="BE21" s="15" t="str">
@@ -5292,7 +5494,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Шенячий Патруль мальчик главный</v>
       </c>
       <c r="BR21" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS21" s="17" t="str">
         <f aca="false">CONCATENATE(H21,"Video_DTF.mp4")</f>
@@ -5301,10 +5503,13 @@
     </row>
     <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>121</v>
+        <v>141</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A5\", A22, ".pdf")</f>
@@ -5317,13 +5522,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="0" t="str">
         <f aca="false">A22</f>
@@ -5333,11 +5538,15 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A22, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Черепашки Ниндзя фон треугольник</v>
       </c>
+      <c r="P22" s="7" t="str">
+        <f aca="false">B22</f>
+        <v>OZN1489754845</v>
+      </c>
       <c r="Q22" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" s="8" t="str">
         <f aca="false">A22&amp;Описание!B27</f>
@@ -5357,7 +5566,7 @@
         <v>10</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" s="9" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,"instruction_A5.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
@@ -5376,10 +5585,10 @@
         <v>428</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">W22</f>
@@ -5409,7 +5618,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ22" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS22" s="11"/>
       <c r="AT22" s="0" t="str">
@@ -5417,7 +5626,7 @@
         <v>Черепашки Ниндзя фон треугольник</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV22" s="0" t="str">
         <f aca="false">S22</f>
@@ -5433,7 +5642,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC22" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD22" s="11"/>
       <c r="BE22" s="15" t="str">
@@ -5445,7 +5654,7 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Черепашки Ниндзя фон треугольник</v>
       </c>
       <c r="BR22" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BS22" s="17" t="str">
         <f aca="false">CONCATENATE(H22,"Video_DTF.mp4")</f>
@@ -6322,394 +6531,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create_накоейки_А5_21.03.2024.xlsx
+++ b/create cards for OZON WB XLS/data to create Термонаклейки/Data_to_create_накоейки_А5_21.03.2024.xlsx
@@ -1907,7 +1907,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2034,8 +2034,8 @@
   </sheetPr>
   <dimension ref="A1:BS120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
